--- a/mallar/import/Trahast2023Vattholma/extr1_vattholma.xlsx
+++ b/mallar/import/Trahast2023Vattholma/extr1_vattholma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\import\Trahast2023Vattholma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A163D78B-FC9B-404F-AFCE-3261EBEFB2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B549AB3-8517-4E85-91D9-A89A97A67981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10800" windowHeight="12900" tabRatio="803" activeTab="1" xr2:uid="{9C6C5895-3CBC-495A-8EC3-24DF642F0EB2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="803" xr2:uid="{9C6C5895-3CBC-495A-8EC3-24DF642F0EB2}"/>
   </bookViews>
   <sheets>
     <sheet name="ekipage" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="98">
   <si>
     <t>Föreningen Uppsala Voltige</t>
   </si>
@@ -306,13 +306,43 @@
   </si>
   <si>
     <t>Fortuna</t>
+  </si>
+  <si>
+    <t>PasDeDeux1</t>
+  </si>
+  <si>
+    <t>PasDeDeux2</t>
+  </si>
+  <si>
+    <t>PasDeDeux3</t>
+  </si>
+  <si>
+    <t>PasDeDeux4</t>
+  </si>
+  <si>
+    <t>PasDeDeux5</t>
+  </si>
+  <si>
+    <t>PasDeDeux6</t>
+  </si>
+  <si>
+    <t>PasDeDeux7</t>
+  </si>
+  <si>
+    <t>PasDeDeux8</t>
+  </si>
+  <si>
+    <t>PasDeDeux9</t>
+  </si>
+  <si>
+    <t>PasDeDeux10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +394,12 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -731,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B3B0E3-2027-4083-B582-AAB0C4C3F786}">
   <dimension ref="A1:AA68"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -745,7 +781,8 @@
     <col min="7" max="7" width="3.86328125" style="4" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" style="4" customWidth="1"/>
     <col min="9" max="9" width="24.6640625" style="4" customWidth="1"/>
-    <col min="10" max="11" width="11" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.19921875" style="4" customWidth="1"/>
     <col min="12" max="12" width="10.46484375" style="4" customWidth="1"/>
     <col min="13" max="13" width="21.53125" style="4" customWidth="1"/>
     <col min="14" max="14" width="8.86328125" style="4"/>
@@ -1941,6 +1978,9 @@
       <c r="I27" t="s">
         <v>8</v>
       </c>
+      <c r="K27" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="L27" s="4">
         <v>10010</v>
       </c>
@@ -1982,6 +2022,9 @@
       <c r="I28" t="s">
         <v>8</v>
       </c>
+      <c r="K28" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="L28" s="4">
         <v>10001</v>
       </c>
@@ -2023,6 +2066,9 @@
       <c r="I29" t="s">
         <v>8</v>
       </c>
+      <c r="K29" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="L29" s="4">
         <v>10012</v>
       </c>
@@ -2064,6 +2110,9 @@
       <c r="I30" t="s">
         <v>8</v>
       </c>
+      <c r="K30" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="L30" s="4">
         <v>10005</v>
       </c>
@@ -2105,6 +2154,9 @@
       <c r="I31" t="s">
         <v>0</v>
       </c>
+      <c r="K31" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="L31" s="4">
         <v>30018</v>
       </c>
@@ -2146,6 +2198,9 @@
       <c r="I32" t="s">
         <v>0</v>
       </c>
+      <c r="K32" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="L32" s="4">
         <v>30019</v>
       </c>
@@ -2187,6 +2242,9 @@
       <c r="I33" t="s">
         <v>0</v>
       </c>
+      <c r="K33" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="L33" s="4">
         <v>30025</v>
       </c>
@@ -2228,6 +2286,9 @@
       <c r="I34" t="s">
         <v>0</v>
       </c>
+      <c r="K34" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="L34" s="4">
         <v>30002</v>
       </c>
@@ -2269,6 +2330,9 @@
       <c r="I35" t="s">
         <v>0</v>
       </c>
+      <c r="K35" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="L35" s="4">
         <v>30006</v>
       </c>
@@ -2309,6 +2373,9 @@
       </c>
       <c r="I36" t="s">
         <v>0</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="L36" s="4">
         <v>30021</v>
@@ -2591,6 +2658,7 @@
       <c r="M68" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2611,8 +2679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9D28CB-C6E2-4B8D-9091-1FD20615DBE1}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
